--- a/thresholds/IGCSE/co-ordinated-sciences/co-ordinated-sciences-thresholds.xlsx
+++ b/thresholds/IGCSE/co-ordinated-sciences/co-ordinated-sciences-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,77 +534,77 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>240</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,53</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -626,22 +626,22 @@
         <v>179</v>
       </c>
       <c r="D5" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,36 +657,36 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BZ 23,43,53</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>240</v>
       </c>
       <c r="C6" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D6" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I6" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -698,36 +698,36 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>240</v>
       </c>
       <c r="C7" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E7" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -749,22 +749,22 @@
         <v>179</v>
       </c>
       <c r="D8" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -780,36 +780,36 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -837,20 +837,20 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,33,53</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -878,20 +878,20 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G11" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FZ 13,33,53</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" t="n">
         <v>82</v>
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -960,20 +960,20 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,20 +1001,20 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1026,118 +1026,118 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>240</v>
       </c>
       <c r="C15" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H15" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C16" t="n">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I16" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,53</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D17" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E17" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" t="n">
         <v>68</v>
       </c>
       <c r="I17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1149,36 +1149,36 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>240</v>
       </c>
       <c r="C18" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D18" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G18" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I18" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1190,36 +1190,36 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>BZ 23,43,53</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>240</v>
       </c>
       <c r="C19" t="n">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D19" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E19" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F19" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I19" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,36 +1231,36 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>240</v>
       </c>
       <c r="C20" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D20" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E20" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" t="n">
         <v>68</v>
       </c>
       <c r="I20" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1272,36 +1272,36 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F21" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G21" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H21" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I21" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1313,36 +1313,36 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>240</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F22" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G22" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H22" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I22" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1370,20 +1370,20 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G23" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" t="n">
         <v>69</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H24" t="n">
         <v>83</v>
@@ -1436,7 +1436,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1452,20 +1452,20 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1477,155 +1477,155 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>240</v>
       </c>
       <c r="C26" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="G26" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H26" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I26" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>240</v>
       </c>
       <c r="C27" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H27" t="n">
+        <v>83</v>
+      </c>
+      <c r="I27" t="n">
         <v>67</v>
       </c>
-      <c r="I27" t="n">
-        <v>53</v>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,53</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C28" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D28" t="n">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H28" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I28" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>240</v>
       </c>
       <c r="C29" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G29" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H29" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1641,32 +1641,32 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>240</v>
       </c>
       <c r="C30" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F30" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I30" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1682,36 +1682,36 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>BZ 23,43,53</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>240</v>
       </c>
       <c r="C31" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D31" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" t="n">
         <v>92</v>
       </c>
       <c r="G31" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I31" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1723,36 +1723,36 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FX 11,31,51</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>240</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F32" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G32" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H32" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I32" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1764,36 +1764,36 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>240</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F33" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G33" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H33" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I33" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1805,36 +1805,36 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,33,53</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>240</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F34" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G34" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H34" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I34" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FX 11,31,51</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1862,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G35" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H35" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I35" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1903,20 +1903,20 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G36" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H36" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I36" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1928,39 +1928,203 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>FZ 13,33,53</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>240</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>113</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>83</v>
+      </c>
+      <c r="I37" t="n">
+        <v>68</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GX 11,31,61</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>240</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>110</v>
+      </c>
+      <c r="G38" t="n">
+        <v>94</v>
+      </c>
+      <c r="H38" t="n">
+        <v>79</v>
+      </c>
+      <c r="I38" t="n">
+        <v>65</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GY 12,32,62</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>240</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>112</v>
+      </c>
+      <c r="G39" t="n">
+        <v>97</v>
+      </c>
+      <c r="H39" t="n">
+        <v>82</v>
+      </c>
+      <c r="I39" t="n">
+        <v>66</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
           <t>GZ 13,33,63</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>240</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="B40" t="n">
+        <v>240</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>112</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G40" t="n">
         <v>97</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>82</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>66</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>90</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82</v>
+      </c>
+      <c r="D41" t="n">
+        <v>74</v>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="n">
+        <v>49</v>
+      </c>
+      <c r="G41" t="n">
+        <v>41</v>
+      </c>
+      <c r="H41" t="n">
+        <v>33</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
